--- a/excel_datei_einstellungen/Leuchten.xlsx
+++ b/excel_datei_einstellungen/Leuchten.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>340</v>
+        <v>340.5</v>
       </c>
       <c r="D2" s="1">
         <v>360</v>

--- a/excel_datei_einstellungen/Leuchten.xlsx
+++ b/excel_datei_einstellungen/Leuchten.xlsx
@@ -30,19 +30,19 @@
     <t>#2</t>
   </si>
   <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
     <t>Spannung [V]</t>
   </si>
   <si>
-    <t>Mininmalstrom [mA]</t>
-  </si>
-  <si>
-    <t>Maximalstrom [mA]</t>
+    <t>LED1 Mininmalstrom [mA]</t>
+  </si>
+  <si>
+    <t>LED1 Maximalstrom [mA]</t>
+  </si>
+  <si>
+    <t>LED2 Mininmalstrom [mA]</t>
+  </si>
+  <si>
+    <t>LED2 Maximalstrom [mA]</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,16 +122,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -412,33 +422,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="24.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -451,8 +471,14 @@
       <c r="D2" s="1">
         <v>360</v>
       </c>
+      <c r="E2" s="5">
+        <v>1030</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1070</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -460,38 +486,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>1030</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
         <v>340</v>
       </c>
-      <c r="D4" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1030</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1070</v>
+      <c r="E3" s="5">
+        <v>1020</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/excel_datei_einstellungen/Leuchten.xlsx
+++ b/excel_datei_einstellungen/Leuchten.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Arbeitsordner MA\PRAKTIKANT\Netaev\Programme\messung_03\excel_datei_einstellungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Referenznummer</t>
   </si>
   <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>Spannung [V]</t>
   </si>
   <si>
@@ -43,6 +42,30 @@
   </si>
   <si>
     <t>LED2 Maximalstrom [mA]</t>
+  </si>
+  <si>
+    <t>LMH700000</t>
+  </si>
+  <si>
+    <t>LMH700001</t>
+  </si>
+  <si>
+    <t>LMH700002</t>
+  </si>
+  <si>
+    <t>LMH700003</t>
+  </si>
+  <si>
+    <t>LMH700004</t>
+  </si>
+  <si>
+    <t>LMH700005</t>
+  </si>
+  <si>
+    <t>LMH700006</t>
+  </si>
+  <si>
+    <t>LMH700007</t>
   </si>
 </sst>
 </file>
@@ -52,10 +75,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,34 +99,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -112,19 +111,43 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -135,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -160,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +200,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -188,7 +212,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -205,7 +229,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -235,12 +259,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -270,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,83 +480,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <f>H2*0.95</f>
+        <v>503.5</v>
+      </c>
+      <c r="D2" s="2">
+        <f>H2*1.05</f>
+        <v>556.5</v>
+      </c>
+      <c r="E2" s="5">
+        <f>I2*0.95</f>
+        <v>171</v>
+      </c>
+      <c r="F2" s="1">
+        <f>I2*1.05</f>
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>530</v>
+      </c>
+      <c r="I2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>340.5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <f>H3*0.95</f>
+        <v>750.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f>H3*1.05</f>
+        <v>829.5</v>
+      </c>
+      <c r="E3" s="5">
+        <f>I3*0.95</f>
+        <v>256.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f>I3*1.05</f>
+        <v>283.5</v>
+      </c>
+      <c r="H3">
+        <v>790</v>
+      </c>
+      <c r="I3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <f>H4*0.95</f>
+        <v>959.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>H4*1.05</f>
+        <v>1060.5</v>
+      </c>
+      <c r="E4" s="5">
+        <f>I4*0.95</f>
+        <v>342</v>
+      </c>
+      <c r="F4" s="1">
+        <f>I4*1.05</f>
+        <v>378</v>
+      </c>
+      <c r="H4">
+        <v>1010</v>
+      </c>
+      <c r="I4">
         <v>360</v>
       </c>
-      <c r="E2" s="5">
-        <v>1030</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>320</v>
-      </c>
-      <c r="D3" s="1">
-        <v>340</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1020</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1040</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f>H5*0.95</f>
+        <v>1244.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>H5*1.05</f>
+        <v>1375.5</v>
+      </c>
+      <c r="E5" s="5">
+        <f>I5*0.95</f>
+        <v>427.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f>I5*1.05</f>
+        <v>472.5</v>
+      </c>
+      <c r="H5">
+        <v>1310</v>
+      </c>
+      <c r="I5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:D9" si="0">C2</f>
+        <v>503.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>556.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>750.5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>829.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>959.5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1060.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1244.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1375.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/excel_datei_einstellungen/Leuchten.xlsx
+++ b/excel_datei_einstellungen/Leuchten.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Arbeitsordner MA\PRAKTIKANT\Netaev\Programme\messung_03\excel_datei_einstellungen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Referenznummer</t>
   </si>
   <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
     <t>Spannung [V]</t>
   </si>
   <si>
@@ -42,30 +43,6 @@
   </si>
   <si>
     <t>LED2 Maximalstrom [mA]</t>
-  </si>
-  <si>
-    <t>LMH700000</t>
-  </si>
-  <si>
-    <t>LMH700001</t>
-  </si>
-  <si>
-    <t>LMH700002</t>
-  </si>
-  <si>
-    <t>LMH700003</t>
-  </si>
-  <si>
-    <t>LMH700004</t>
-  </si>
-  <si>
-    <t>LMH700005</t>
-  </si>
-  <si>
-    <t>LMH700006</t>
-  </si>
-  <si>
-    <t>LMH700007</t>
   </si>
 </sst>
 </file>
@@ -75,10 +52,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +76,34 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -111,43 +112,19 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -158,14 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -184,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,7 +176,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -212,7 +188,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -229,7 +205,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -259,29 +235,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -311,23 +270,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,253 +422,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>340.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>360</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1030</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
-        <f>H2*0.95</f>
-        <v>503.5</v>
-      </c>
-      <c r="D2" s="2">
-        <f>H2*1.05</f>
-        <v>556.5</v>
-      </c>
-      <c r="E2" s="5">
-        <f>I2*0.95</f>
-        <v>171</v>
-      </c>
-      <c r="F2" s="1">
-        <f>I2*1.05</f>
-        <v>189</v>
-      </c>
-      <c r="H2">
-        <v>530</v>
-      </c>
-      <c r="I2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <f>H3*0.95</f>
-        <v>750.5</v>
-      </c>
-      <c r="D3" s="2">
-        <f>H3*1.05</f>
-        <v>829.5</v>
+      <c r="C3" s="2">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1">
+        <v>340</v>
       </c>
       <c r="E3" s="5">
-        <f>I3*0.95</f>
-        <v>256.5</v>
-      </c>
-      <c r="F3" s="1">
-        <f>I3*1.05</f>
-        <v>283.5</v>
-      </c>
-      <c r="H3">
-        <v>790</v>
-      </c>
-      <c r="I3">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <f>H4*0.95</f>
-        <v>959.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f>H4*1.05</f>
-        <v>1060.5</v>
-      </c>
-      <c r="E4" s="5">
-        <f>I4*0.95</f>
-        <v>342</v>
-      </c>
-      <c r="F4" s="1">
-        <f>I4*1.05</f>
-        <v>378</v>
-      </c>
-      <c r="H4">
-        <v>1010</v>
-      </c>
-      <c r="I4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <f>H5*0.95</f>
-        <v>1244.5</v>
-      </c>
-      <c r="D5" s="2">
-        <f>H5*1.05</f>
-        <v>1375.5</v>
-      </c>
-      <c r="E5" s="5">
-        <f>I5*0.95</f>
-        <v>427.5</v>
-      </c>
-      <c r="F5" s="1">
-        <f>I5*1.05</f>
-        <v>472.5</v>
-      </c>
-      <c r="H5">
-        <v>1310</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:D9" si="0">C2</f>
-        <v>503.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>556.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>750.5</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>829.5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>959.5</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1060.5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>1244.5</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1375.5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
+        <v>1020</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_datei_einstellungen/Leuchten.xlsx
+++ b/excel_datei_einstellungen/Leuchten.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Arbeitsordner MA\PRAKTIKANT\Netaev\Programme\messung_03\excel_datei_einstellungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9581F24E-6EB3-48B4-97F1-106A1CEEC7EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Referenznummer</t>
   </si>
   <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>Spannung [V]</t>
   </si>
   <si>
@@ -43,19 +43,43 @@
   </si>
   <si>
     <t>LED2 Maximalstrom [mA]</t>
+  </si>
+  <si>
+    <t>LMH700000</t>
+  </si>
+  <si>
+    <t>LMH700001</t>
+  </si>
+  <si>
+    <t>LMH700002</t>
+  </si>
+  <si>
+    <t>LMH700003</t>
+  </si>
+  <si>
+    <t>LMH700004</t>
+  </si>
+  <si>
+    <t>LMH700005</t>
+  </si>
+  <si>
+    <t>LMH700006</t>
+  </si>
+  <si>
+    <t>LMH700007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,34 +100,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -112,19 +112,43 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -135,13 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -160,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +201,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -188,7 +213,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -205,7 +230,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -235,12 +260,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -270,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,84 +480,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>503.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>556.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>171</v>
+      </c>
+      <c r="F2" s="1">
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>530</v>
+      </c>
+      <c r="I2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>340.5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>829.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>256.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>283.5</v>
+      </c>
+      <c r="H3">
+        <v>790</v>
+      </c>
+      <c r="I3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>959.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1060.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>342</v>
+      </c>
+      <c r="F4" s="1">
+        <v>378</v>
+      </c>
+      <c r="H4">
+        <v>1010</v>
+      </c>
+      <c r="I4">
         <v>360</v>
       </c>
-      <c r="E2" s="5">
-        <v>1030</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>320</v>
-      </c>
-      <c r="D3" s="1">
-        <v>340</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1020</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1040</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1244.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1375.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>427.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>472.5</v>
+      </c>
+      <c r="H5">
+        <v>1310</v>
+      </c>
+      <c r="I5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>503.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>556.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>750.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>829.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>959.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1060.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1244.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1375.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>